--- a/assets/templates/RS0002-continuous-fan-template.a205.xlsx
+++ b/assets/templates/RS0002-continuous-fan-template.a205.xlsx
@@ -11,8 +11,9 @@
     <sheet name="fan_representation" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="assembly_components" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="performance_map_cooling" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="performance_map_standby" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="coil_system_representation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_cooling" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_standby" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -91,172 +92,142 @@
   <commentList>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>Representation specification version</t>
+        <t>ASHRAE 205 standard version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
         <t>Representation specification identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>Free-form version identifier for this representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
         <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
       <text>
         <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
-      <text>
-        <t>Name of the outdoor unit manufacturer</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Manufacturer name</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Model number of the indoor unit</t>
+        <t>Model number</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
-      <text>
-        <t>Type of compressor</t>
+        <t>AHRI Certified Reference Number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Version of the software used to generate the AHRI rating and the performance maps</t>
       </text>
     </comment>
     <comment authorId="0" ref="B24" shapeId="0">
       <text>
+        <t>Seasonal Energy Efficiency Ratio as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Energy Efficiency Ratio (A) as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Total cooling capacity (A) as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B27" shapeId="0">
+      <text>
+        <t>Power per air flow rate of the fan used in the AHRI 210/240 calculation of SEER and EER</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B28" shapeId="0">
+      <text>
+        <t>Whether this rating can be reproduced using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B30" shapeId="0">
+      <text>
         <t>AHRI Certified Reference Number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B32" shapeId="0">
       <text>
         <t>Version of the software used to generate the AHRI rating and the performance maps</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
-      <text>
-        <t>Seasonal Energy Efficiency Ratio as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
-      <text>
-        <t>Energy Efficiency Ratio (A) as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B29" shapeId="0">
-      <text>
-        <t>Total cooling capacity (A) as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
-      <text>
-        <t>Power per air flow rate of the fan used in the AHRI 210/240 calculation of SEER and EER</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B31" shapeId="0">
+    <comment authorId="0" ref="B33" shapeId="0">
+      <text>
+        <t>Integrated Energy Efficiency Ratio as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34" shapeId="0">
+      <text>
+        <t>Energy Efficiency Ratio as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35" shapeId="0">
+      <text>
+        <t>Total cooling capacity as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
+      <text>
+        <t>Power per air flow rate of the indoor fan used in the AHRI 340/360 calculation of IEER and EER</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B37" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
-      <text>
-        <t>AHRI Certified Reference Number</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
-      <text>
-        <t>Version of the software used to generate the AHRI rating and the performance maps</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
-      <text>
-        <t>Integrated Energy Efficiency Ratio as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B37" shapeId="0">
-      <text>
-        <t>Energy Efficiency Ratio as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B38" shapeId="0">
-      <text>
-        <t>Total cooling capacity as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B39" shapeId="0">
-      <text>
-        <t>Power per air flow rate of the indoor fan used in the AHRI 340/360 calculation of IEER and EER</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B40" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A43" shapeId="0">
+    <comment authorId="0" ref="A39" shapeId="0">
       <text>
         <t>Base schema for ASHRAE 205 representations</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B45" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate leaving the indoor coil used to scale the flow ratios in the PerformanceMap</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B46" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A47" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A48" shapeId="0">
-      <text>
-        <t>Data group describing standby performance</t>
+    <comment authorId="0" ref="A41" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
       </text>
     </comment>
   </commentList>
@@ -271,95 +242,130 @@
   <commentList>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>Representation specification version</t>
+        <t>ASHRAE 205 standard version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
         <t>Representation specification identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>Free-form version identifier for this representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
         <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
       <text>
         <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment authorId="0" ref="B18" shapeId="0">
       <text>
         <t>Name of the assembly/unit manufacturer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
+    <comment authorId="0" ref="B19" shapeId="0">
       <text>
         <t>Model number of the assembly / unit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <t>Assembly includes a motor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment authorId="0" ref="B21" shapeId="0">
       <text>
         <t>Fan assembly is enclosed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment authorId="0" ref="B23" shapeId="0">
       <text>
         <t>Motor and impeller are directly coupled</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <t>Number of impellers included in the fan assembly</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B27" shapeId="0">
       <text>
         <t>Nominal air flow rate for fan assembly</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
+    <comment authorId="0" ref="B28" shapeId="0">
       <text>
         <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
+    <comment authorId="0" ref="B29" shapeId="0">
       <text>
         <t>Fraction of motor heat into the air stream</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B29" shapeId="0">
+    <comment authorId="0" ref="B30" shapeId="0">
+      <text>
+        <t>Maximum power draw of the fan motor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
+        <t>Maximum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Minimum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A33" shapeId="0">
+      <text>
+        <t xml:space="preserve">A description of the maximum system curve for system selection </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34" shapeId="0">
+      <text>
+        <t>Volumetric air flow rate through an air distribution system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35" shapeId="0">
+      <text>
+        <t>Static pressure drop of an air distribution system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
       <text>
         <t>Assembly power draw when fan is not operating</t>
       </text>
@@ -406,17 +412,17 @@
     </comment>
     <comment authorId="0" ref="A3" shapeId="0">
       <text>
+        <t>Volumetric air flow rate through fan assembly</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>Static pressure across fan assembly at dry coil conditions</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3" shapeId="0">
+      <text>
         <t>Rotational speed of fan impeller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Static pressure across fan assembly at dry coil conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate through fan assembly</t>
       </text>
     </comment>
     <comment authorId="0" ref="D3" shapeId="0">
@@ -434,59 +440,99 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>Data group defining the grid variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
-      <text>
-        <t>Data group defining the lookup variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
-      <text>
-        <t>Dry bulb temperature of the air entering the outdoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Wet bulb temperature of the air entering the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
-      <text>
-        <t>Dry bulb temperature of the air entering the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
-      <text>
-        <t>Ratio of the volumetric air flow rate over the indoor coil to the nominal volumetric air flow rate</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Index indicating the relative order of the compressor speed/stage</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
-      <text>
-        <t>Ambient absolute air pressure</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
-      <text>
-        <t>Total heat removed by the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
-      <text>
-        <t>Sensible heat removed by the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
-      <text>
-        <t>Gross power draw (of the outdoor unit)</t>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Model number of the outdoor unit</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Name of the indoor unit manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21" shapeId="0">
+      <text>
+        <t>Model number of the indoor unit</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
+      <text>
+        <t>Type of refrigerant</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Type of compressor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A27" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A28" shapeId="0">
+      <text>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
   </commentList>
@@ -494,6 +540,71 @@
 </file>
 
 <file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G2" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A3" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air entering the outdoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>Relative humidity of the air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D3" shapeId="0">
+      <text>
+        <t>Mass flow rate of air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E3" shapeId="0">
+      <text>
+        <t>Index indicating the relative order of the compressor speed/stage</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F3" shapeId="0">
+      <text>
+        <t>Ambient absolute air pressure</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G3" shapeId="0">
+      <text>
+        <t>Total heat removed by the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H3" shapeId="0">
+      <text>
+        <t>Sensible heat removed by the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I3" shapeId="0">
+      <text>
+        <t>Gross power draw (of the outdoor unit)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ASHRAE 205</author>
@@ -812,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,12 +984,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
+          <t>standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -890,12 +996,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RS0002</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -907,7 +1013,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0002</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -919,7 +1030,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -931,31 +1042,43 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -963,35 +1086,35 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
+          <t>ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.description</t>
+          <t>ASHRAE205.RS_instance.RS0002</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -999,27 +1122,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0002.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0002.description.product_information</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                outdoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                outdoor_unit_model_number</t>
+          <t xml:space="preserve">                manufacturer</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1031,15 +1150,19 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                indoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
+          <t xml:space="preserve">                model_number</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                indoor_unit_model_number</t>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_210_240</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -1047,31 +1170,48 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                refrigerant_type</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
+          <t xml:space="preserve">                certified_reference_number</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                compressor_type</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n"/>
+          <t xml:space="preserve">                test_standard_year</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_210_240</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                manufacturer_data_source_version</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certified_reference_number</t>
+          <t xml:space="preserve">                SEER</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1083,7 +1223,12 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                test_standard_year</t>
+          <t xml:space="preserve">                EER</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1095,7 +1240,12 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_data_source_version</t>
+          <t xml:space="preserve">                capacity</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1107,29 +1257,20 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                SEER</t>
+          <t xml:space="preserve">                rating_fan_power_per_flow</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Btu/W-h</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W/(m3/s)</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">                EER</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Btu/W-h</t>
+          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1139,39 +1280,29 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                capacity</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_340_360</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_fan_power_per_flow</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>W/(m3/s)</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="n"/>
+          <t xml:space="preserve">                certified_reference_number</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">                test_standard_year</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1181,17 +1312,26 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_340_360</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="n"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                manufacturer_data_source_version</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certified_reference_number</t>
+          <t xml:space="preserve">                IEER</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1203,7 +1343,12 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                test_standard_year</t>
+          <t xml:space="preserve">                EER</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1215,7 +1360,12 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_data_source_version</t>
+          <t xml:space="preserve">                capacity</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1227,29 +1377,20 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">                IEER</t>
+          <t xml:space="preserve">                rating_fan_power_per_flow</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Btu/W-h</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W/(m3/s)</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">                EER</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Btu/W-h</t>
+          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1259,14 +1400,9 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                capacity</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Btu/h</t>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1276,14 +1412,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                rating_fan_power_per_flow</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>W/(m3/s)</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$fan_representation</t>
         </is>
       </c>
       <c r="E39" s="3" t="n"/>
@@ -1291,7 +1427,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">            fan_position</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1303,7 +1439,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$coil_system_representation</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -1312,124 +1453,21 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            compressor_control_method</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>$fan_representation</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            fan_position</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            nominal_volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>m3/s</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>$performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>$performance_map_standby</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003"</formula1>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
-      <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
       <formula1>"2008,2017"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C34" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
       <formula1>"2007,2015,IP_2019"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
-      <formula1>"STAGED,DYNAMIC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
       <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1444,7 +1482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1501,12 +1539,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    schema_version</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
+          <t xml:space="preserve">                    standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -1518,12 +1551,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    RS_ID</t>
+          <t xml:space="preserve">                    schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RS0003</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -1535,7 +1568,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    ID</t>
+          <t xml:space="preserve">                    RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0003</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -1547,7 +1585,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_timestamp</t>
+          <t xml:space="preserve">                    description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -1559,31 +1597,43 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_version</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
+          <t xml:space="preserve">                    ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    description</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
+          <t xml:space="preserve">                    data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_source</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
+          <t xml:space="preserve">                    data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    disclaimer</t>
+          <t xml:space="preserve">                    data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -1591,35 +1641,35 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">                    disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t xml:space="preserve">                    notes</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -1627,27 +1677,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.product_information</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    model_number</t>
+          <t xml:space="preserve">                                    manufacturer</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1659,7 +1705,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    has_motor</t>
+          <t xml:space="preserve">                                    model_number</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1671,7 +1717,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    enclosed</t>
+          <t xml:space="preserve">                                    has_motor</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1683,15 +1729,19 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    impeller_type</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
+          <t xml:space="preserve">                                    enclosed</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    direct_drive_impeller</t>
+          <t xml:space="preserve">                                    impeller_type</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
@@ -1699,20 +1749,15 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
+          <t xml:space="preserve">                                    direct_drive_impeller</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
           <t xml:space="preserve">                                    number_of_impellers</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>$assembly_components</t>
         </is>
       </c>
       <c r="E24" s="3" t="n"/>
@@ -1720,24 +1765,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$assembly_components</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                nominal_volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>m3/s</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1749,12 +1790,12 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                wet_coil_pressure_drop</t>
+          <t xml:space="preserve">                                nominal_volumetric_air_flow_rate</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m3/s</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1766,12 +1807,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                motor_heat_fraction</t>
+          <t xml:space="preserve">                                wet_coil_pressure_drop</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1783,12 +1824,12 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                standby_power</t>
+          <t xml:space="preserve">                                motor_heat_fraction</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1800,12 +1841,12 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                performance_map_type</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CONTINUOUS</t>
+          <t xml:space="preserve">                                maximum_power</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1817,44 +1858,167 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
+          <t xml:space="preserve">                                maximum_impeller_speed</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                minimum_impeller_speed</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.maximum_system_curve</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                standby_power</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                performance_map_type</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CONTINUOUS</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
           <t xml:space="preserve">                                speed_control_type</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.performance_map</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003"</formula1>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C37" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C38" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1943,17 +2107,17 @@
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
+          <t>volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
           <t>impeller_speed</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>static_pressure_difference</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>volumetric_air_flow_rate</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
@@ -1965,17 +2129,17 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>rev/s</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>m3/s</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1991,6 +2155,366 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    standard_version</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    schema_version</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0004</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    description</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_source</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    notes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description.product_information</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    outdoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    indoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    indoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    refrigerant_type</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    compressor_type</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                compressor_control_method</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$performance_map_standby</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+      <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
+      <formula1>"STAGED,DYNAMIC"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2007,7 +2531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2555,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>indoor_coil_entering_wet_bulb_temperature</t>
+          <t>indoor_coil_entering_relative_humidity</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -2041,7 +2565,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>indoor_coil_volumetric_flow_ratio</t>
+          <t>indoor_coil_air_mass_flow_rate</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -2078,17 +2602,17 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kg/s</t>
         </is>
       </c>
       <c r="E4" s="4" t="n"/>
@@ -2119,7 +2643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2136,7 +2660,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>

--- a/assets/templates/RS0002-continuous-fan-template.a205.xlsx
+++ b/assets/templates/RS0002-continuous-fan-template.a205.xlsx
@@ -10,10 +10,12 @@
     <sheet name="RS0002" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="fan_representation" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="assembly_components" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="performance_map" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="coil_system_representation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="performance_map_cooling" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="performance_map_standby" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="motor_representation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="drive_representation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DX_system_representation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="performance_map_cooling" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="performance_map_standby" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -140,84 +142,89 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Manufacturer name</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Manufacturer name</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
         <t>Model number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <t>AHRI Certified Reference Number</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
+      <text>
+        <t>Version of the software used to generate the AHRI rating and the performance maps</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B23" shapeId="0">
       <text>
+        <t>Seasonal Energy Efficiency Ratio as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24" shapeId="0">
+      <text>
+        <t>Energy Efficiency Ratio (A) as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Total cooling capacity (A) as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Power per air flow rate of the fan used in the AHRI 210/240 calculation of SEER and EER</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B27" shapeId="0">
+      <text>
+        <t>Whether this rating can be reproduced using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B29" shapeId="0">
+      <text>
+        <t>AHRI Certified Reference Number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
         <t>Version of the software used to generate the AHRI rating and the performance maps</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
-      <text>
-        <t>Seasonal Energy Efficiency Ratio as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
-      <text>
-        <t>Energy Efficiency Ratio (A) as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
-      <text>
-        <t>Total cooling capacity (A) as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
-      <text>
-        <t>Power per air flow rate of the fan used in the AHRI 210/240 calculation of SEER and EER</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Integrated Energy Efficiency Ratio as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B33" shapeId="0">
+      <text>
+        <t>Energy Efficiency Ratio as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34" shapeId="0">
+      <text>
+        <t>Total cooling capacity as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35" shapeId="0">
+      <text>
+        <t>Power per air flow rate of the indoor fan used in the AHRI 340/360 calculation of IEER and EER</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
-      <text>
-        <t>AHRI Certified Reference Number</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B32" shapeId="0">
-      <text>
-        <t>Version of the software used to generate the AHRI rating and the performance maps</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
-      <text>
-        <t>Integrated Energy Efficiency Ratio as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
-      <text>
-        <t>Energy Efficiency Ratio as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
-      <text>
-        <t>Total cooling capacity as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
-      <text>
-        <t>Power per air flow rate of the indoor fan used in the AHRI 340/360 calculation of IEER and EER</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B37" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
+    <comment authorId="0" ref="B38" shapeId="0">
+      <text>
+        <t>Continuous unit power draw regardless of whether the fan or DX system are operating.</t>
       </text>
     </comment>
     <comment authorId="0" ref="A39" shapeId="0">
@@ -290,84 +297,79 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the assembly/unit manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Name of the assembly/unit manufacturer</t>
+        <t>Model number of the assembly / unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Model number of the assembly / unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Assembly includes a motor</t>
+        <t>Fan assembly is enclosed</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Fan assembly is enclosed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
-        <t>Motor and impeller are directly coupled</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
+        <t>The fan impeller is driven by a belt and pulley system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
       <text>
         <t>Number of impellers included in the fan assembly</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Nominal air flow rate for fan assembly</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B27" shapeId="0">
       <text>
-        <t>Nominal air flow rate for fan assembly</t>
+        <t>Fraction of efficiency losses added as heat transferred into the air stream</t>
       </text>
     </comment>
     <comment authorId="0" ref="B28" shapeId="0">
       <text>
-        <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
+        <t>Maximum impeller rotational speed</t>
       </text>
     </comment>
     <comment authorId="0" ref="B29" shapeId="0">
       <text>
-        <t>Fraction of motor heat into the air stream</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
-      <text>
-        <t>Maximum power draw of the fan motor</t>
+        <t>Minimum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A30" shapeId="0">
+      <text>
+        <t>A description of the stability area for system selection</t>
       </text>
     </comment>
     <comment authorId="0" ref="B31" shapeId="0">
       <text>
-        <t>Maximum impeller rotational speed</t>
+        <t>Volumetric air flow rate through an air distribution system</t>
       </text>
     </comment>
     <comment authorId="0" ref="B32" shapeId="0">
       <text>
-        <t>Minimum impeller rotational speed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A33" shapeId="0">
-      <text>
-        <t xml:space="preserve">A description of the maximum system curve for system selection </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate through an air distribution system</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
-      <text>
         <t>Static pressure drop of an air distribution system</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
-      <text>
-        <t>Assembly power draw when fan is not operating</t>
+    <comment authorId="0" ref="A35" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A36" shapeId="0">
+      <text>
+        <t>Data group describing fan performance in terms of impeller speed, static pressure, air flow, and fan electrical or shaft power</t>
       </text>
     </comment>
   </commentList>
@@ -400,34 +402,99 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>Data group describing grid variables for continuous fan performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
-      <text>
-        <t>Data group describing lookup variables for continuous fan performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate through fan assembly</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Static pressure across fan assembly at dry coil conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
-      <text>
-        <t>Rotational speed of fan impeller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
-      <text>
-        <t>Power input to fan assembly</t>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Model number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Input voltage</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Input frequency</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21" shapeId="0">
+      <text>
+        <t>Number of poles</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Maximum operational input power to the motor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24" shapeId="0">
+      <text>
+        <t>Power draw when motor is not operating</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A25" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A26" shapeId="0">
+      <text>
+        <t>Data group describing motor performance when operating</t>
       </text>
     </comment>
   </commentList>
@@ -490,49 +557,29 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Name of the outdoor unit manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Model number</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
+        <t>Maximum power draw of the drive</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Model number of the indoor unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
-      <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
-        <t>Type of compressor</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A27" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A28" shapeId="0">
-      <text>
-        <t>Data group describing standby performance</t>
+        <t>Power draw when the motor is not operating</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A23" shapeId="0">
+      <text>
+        <t>Data group describing drive performance when operating</t>
       </text>
     </comment>
   </commentList>
@@ -547,57 +594,37 @@
   <commentList>
     <comment authorId="0" ref="A2" shapeId="0">
       <text>
-        <t>Data group defining the grid variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
-      <text>
-        <t>Data group defining the lookup variables for cooling performance</t>
+        <t>Data group describing grid variables for continuous fan performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B2" shapeId="0">
+      <text>
+        <t>Data group describing lookup variables for motor performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C2" shapeId="0">
+      <text>
+        <t>Data group describing lookup variables for continuous fan performance</t>
       </text>
     </comment>
     <comment authorId="0" ref="A3" shapeId="0">
       <text>
-        <t>Dry bulb temperature of the air entering the outdoor coil</t>
+        <t>Volumetric air flow rate through fan assembly</t>
       </text>
     </comment>
     <comment authorId="0" ref="B3" shapeId="0">
       <text>
-        <t>Relative humidity of the air entering the indoor coil</t>
+        <t>Static pressure across fan assembly at dry coil conditions</t>
       </text>
     </comment>
     <comment authorId="0" ref="C3" shapeId="0">
       <text>
-        <t>Dry bulb temperature of the air entering the indoor coil</t>
+        <t>Rotational speed of fan impeller</t>
       </text>
     </comment>
     <comment authorId="0" ref="D3" shapeId="0">
       <text>
-        <t>Mass flow rate of air entering the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Index indicating the relative order of the compressor speed/stage</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
-      <text>
-        <t>Ambient absolute air pressure</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
-      <text>
-        <t>Total heat removed by the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
-      <text>
-        <t>Sensible heat removed by the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
-      <text>
-        <t>Gross power draw (of the outdoor unit)</t>
+        <t>Power input to fan assembly</t>
       </text>
     </comment>
   </commentList>
@@ -605,6 +632,176 @@
 </file>
 
 <file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Model number of the outdoor unit</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Name of the indoor unit manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Model number of the indoor unit</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21" shapeId="0">
+      <text>
+        <t>Type of refrigerant</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
+      <text>
+        <t>Type of compressor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A26" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A27" shapeId="0">
+      <text>
+        <t>Data group describing standby performance</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G2" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A3" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air entering the outdoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>Relative humidity of the air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D3" shapeId="0">
+      <text>
+        <t>Mass flow rate of air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E3" shapeId="0">
+      <text>
+        <t>Index indicating the relative order of the compressor speed/stage</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F3" shapeId="0">
+      <text>
+        <t>Ambient absolute air pressure</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G3" shapeId="0">
+      <text>
+        <t>Total heat removed by the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H3" shapeId="0">
+      <text>
+        <t>Sensible heat removed by the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I3" shapeId="0">
+      <text>
+        <t>Gross power draw (of the outdoor unit)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ASHRAE 205</author>
@@ -1114,7 +1311,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002</t>
+          <t>ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -1122,23 +1319,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.description</t>
+          <t>ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer</t>
+          <t xml:space="preserve">            model_number</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1148,29 +1349,29 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                model_number</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_210_240</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_210_240</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            certified_reference_number</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certified_reference_number</t>
+          <t xml:space="preserve">            test_standard_year</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1182,7 +1383,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                test_standard_year</t>
+          <t xml:space="preserve">            manufacturer_data_source_version</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1194,7 +1395,12 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_data_source_version</t>
+          <t xml:space="preserve">            SEER</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1206,7 +1412,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">                SEER</t>
+          <t xml:space="preserve">            EER</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1223,12 +1429,12 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                EER</t>
+          <t xml:space="preserve">            capacity</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Btu/W-h</t>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1240,57 +1446,52 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">                capacity</t>
+          <t xml:space="preserve">            rating_fan_power_per_flow</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W/(m3/s)</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_fan_power_per_flow</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>W/(m3/s)</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n"/>
+          <t xml:space="preserve">            rating_reproducible_from_performance_data</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_340_360</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_340_360</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="n"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            certified_reference_number</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certified_reference_number</t>
+          <t xml:space="preserve">            test_standard_year</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1302,7 +1503,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                test_standard_year</t>
+          <t xml:space="preserve">            manufacturer_data_source_version</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1314,7 +1515,12 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_data_source_version</t>
+          <t xml:space="preserve">            IEER</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1326,7 +1532,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                IEER</t>
+          <t xml:space="preserve">            EER</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1343,12 +1549,12 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                EER</t>
+          <t xml:space="preserve">            capacity</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Btu/W-h</t>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1360,37 +1566,32 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">                capacity</t>
+          <t xml:space="preserve">            rating_fan_power_per_flow</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W/(m3/s)</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_fan_power_per_flow</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>W/(m3/s)</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="n"/>
+          <t xml:space="preserve">            rating_reproducible_from_performance_data</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1400,9 +1601,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance</t>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        standby_power</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1414,7 +1620,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1427,7 +1633,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">            fan_position</t>
+          <t xml:space="preserve">        fan_position</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1439,12 +1645,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$coil_system_representation</t>
+          <t>$DX_system_representation</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -1459,12 +1665,12 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
       <formula1>"2008,2017"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
       <formula1>"2007,2015,IP_2019"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
@@ -1482,7 +1688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,7 +1703,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1737,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205</t>
         </is>
       </c>
       <c r="E3" s="3" t="n"/>
@@ -1539,7 +1745,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    standard_version</t>
+          <t xml:space="preserve">                standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -1551,7 +1757,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    schema_version</t>
+          <t xml:space="preserve">                schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1568,7 +1774,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    RS_ID</t>
+          <t xml:space="preserve">                RS_ID</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1585,7 +1791,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    description</t>
+          <t xml:space="preserve">                description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -1597,7 +1803,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    ID</t>
+          <t xml:space="preserve">                ID</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -1609,7 +1815,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_timestamp</t>
+          <t xml:space="preserve">                data_timestamp</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -1621,7 +1827,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_version</t>
+          <t xml:space="preserve">                data_version</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -1633,7 +1839,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_source</t>
+          <t xml:space="preserve">                data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -1641,7 +1847,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    disclaimer</t>
+          <t xml:space="preserve">                disclaimer</t>
         </is>
       </c>
       <c r="E12" s="3" t="n"/>
@@ -1649,7 +1855,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    notes</t>
+          <t xml:space="preserve">                notes</t>
         </is>
       </c>
       <c r="E13" s="3" t="n"/>
@@ -1657,7 +1863,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1669,7 +1875,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -1677,23 +1883,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    manufacturer</t>
+          <t xml:space="preserve">                            model_number</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1705,7 +1915,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    model_number</t>
+          <t xml:space="preserve">                            is_enclosed</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1717,68 +1927,78 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    has_motor</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                            impeller_type</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    enclosed</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                            has_belt_drive</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    impeller_type</t>
+          <t xml:space="preserve">                            number_of_impellers</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    direct_drive_impeller</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.description.assembly_components</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$assembly_components</t>
         </is>
       </c>
       <c r="E23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    number_of_impellers</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>$assembly_components</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        nominal_volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance</t>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        wet_coil_pressure_drop</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1790,12 +2010,12 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                nominal_volumetric_air_flow_rate</t>
+          <t xml:space="preserve">                        heat_loss_fraction</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>m3/s</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1807,12 +2027,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                wet_coil_pressure_drop</t>
+          <t xml:space="preserve">                        maximum_impeller_speed</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>rev/s</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1824,12 +2044,12 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                motor_heat_fraction</t>
+          <t xml:space="preserve">                        minimum_impeller_speed</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>rev/s</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1839,31 +2059,27 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                maximum_power</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.stability_curve</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                maximum_impeller_speed</t>
+          <t xml:space="preserve">                            volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$volumetric_air_flow_rate</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rev/s</t>
+          <t>m3/s</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1875,12 +2091,17 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                minimum_impeller_speed</t>
+          <t xml:space="preserve">                            static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$static_pressure_difference</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rev/s</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1890,27 +2111,26 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.maximum_system_curve</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="n"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        performance_map_type</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CONTINUOUS</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>$volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>m3/s</t>
+          <t xml:space="preserve">                        speed_control_type</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1920,85 +2140,30 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    static_pressure_difference</t>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$static_pressure_difference</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>$motor_representation</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                standby_power</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                performance_map_type</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CONTINUOUS</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                speed_control_type</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.performance_map</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>$performance_map</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -2010,15 +2175,15 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C37" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C33" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C38" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C34" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2044,7 +2209,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.assembly_components.component_type</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.description.assembly_components.component_type</t>
         </is>
       </c>
     </row>
@@ -2072,6 +2237,686 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                standard_version</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                schema_version</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0005</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                description</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_source</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                notes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.description</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            model_number</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            input_voltage</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            input_frequency</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            number_of_poles</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        maximum_power</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        standby_power</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$drive_representation</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                standard_version</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                schema_version</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0006</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                description</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                data_source</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                notes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.description</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                            model_number</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                        maximum_power</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                        standby_power</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                        cooling_method</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2088,7 +2933,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.performance_map.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance.performance_map.grid_variables</t>
         </is>
       </c>
     </row>
@@ -2096,6 +2941,11 @@
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2154,13 +3004,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2175,7 +3025,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205</t>
         </is>
       </c>
     </row>
@@ -2209,7 +3059,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205</t>
         </is>
       </c>
       <c r="E3" s="3" t="n"/>
@@ -2217,7 +3067,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    standard_version</t>
+          <t xml:space="preserve">                standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -2229,7 +3079,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    schema_version</t>
+          <t xml:space="preserve">                schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2246,7 +3096,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    RS_ID</t>
+          <t xml:space="preserve">                RS_ID</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2263,7 +3113,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    description</t>
+          <t xml:space="preserve">                description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -2275,7 +3125,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    ID</t>
+          <t xml:space="preserve">                ID</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -2287,7 +3137,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_timestamp</t>
+          <t xml:space="preserve">                data_timestamp</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -2299,7 +3149,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_version</t>
+          <t xml:space="preserve">                data_version</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -2311,7 +3161,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_source</t>
+          <t xml:space="preserve">                data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -2319,7 +3169,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    disclaimer</t>
+          <t xml:space="preserve">                disclaimer</t>
         </is>
       </c>
       <c r="E12" s="3" t="n"/>
@@ -2327,7 +3177,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    notes</t>
+          <t xml:space="preserve">                notes</t>
         </is>
       </c>
       <c r="E13" s="3" t="n"/>
@@ -2335,7 +3185,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -2347,7 +3197,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -2355,23 +3205,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    outdoor_unit_manufacturer</t>
+          <t xml:space="preserve">                            outdoor_unit_model_number</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -2383,19 +3237,15 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    outdoor_unit_model_number</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                            indoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    indoor_unit_manufacturer</t>
+          <t xml:space="preserve">                            indoor_unit_model_number</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -2403,7 +3253,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    indoor_unit_model_number</t>
+          <t xml:space="preserve">                            refrigerant_type</t>
         </is>
       </c>
       <c r="E21" s="3" t="n"/>
@@ -2411,23 +3261,27 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    refrigerant_type</t>
+          <t xml:space="preserve">                            compressor_type</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    compressor_type</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance</t>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        compressor_control_method</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -2439,7 +3293,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                compressor_control_method</t>
+          <t xml:space="preserve">                        cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -2449,9 +3303,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                cycling_degradation_coefficient</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -2463,32 +3322,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_standby</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>$performance_map_standby</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -2500,12 +3342,12 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
       <formula1>"STAGED,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2514,7 +3356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2531,7 +3373,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -2643,7 +3485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2660,7 +3502,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>

--- a/assets/templates/RS0002-continuous-fan-template.a205.xlsx
+++ b/assets/templates/RS0002-continuous-fan-template.a205.xlsx
@@ -1922,7 +1922,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0002-continuous-fan-template.a205.xlsx
+++ b/assets/templates/RS0002-continuous-fan-template.a205.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="RS0002" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="part_load_points" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="fan_representation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="indoor_fan_representation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="assembly_components" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="standard_air_volumetric_flow_ra" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="static_pressure_difference" sheetId="6" state="visible" r:id="rId6"/>
@@ -365,122 +365,152 @@
     </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
+        <t>Low stage net total cooling capacity (at 'G' operating conditions)</t>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <t>Low stage net total cooling capacity (at 'I' operating conditions)</t>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0">
+      <text>
         <t>Full stage net total cooling power (at 'A' operating conditions)</t>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <t>Full stage net total cooling power (at 'B' operating conditions)</t>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t>Low stage net total cooling power (at 'B' operating conditions)</t>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0">
+    <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>Low stage net total cooling power (at 'F' operating conditions)</t>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Low stage net total cooling power (at 'G' operating conditions)</t>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0">
+      <text>
+        <t>Low stage net total cooling power (at 'I' operating conditions)</t>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>Power of the indoor fan at full load</t>
       </text>
     </comment>
-    <comment ref="B35" authorId="0" shapeId="0">
+    <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>Standard air volumetric rate of the indoor fan at full load</t>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>Power of the indoor fan at low stage</t>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>Standard air volumetric rate of the indoor fan at low stage</t>
       </text>
     </comment>
-    <comment ref="B38" authorId="0" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
+      <text>
+        <t>Whether this rating can be recalculated using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0">
+      <text>
+        <t>An explanation of the value for `rating_recalculatable_from_performance_data`</t>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <t>Data group containing information relevant to products rated under AHRI 340/360</t>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0">
+    <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>AHRI Certified Reference Number</t>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>Name and version of the AHRI test standard</t>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>Source of this rating data</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>Type of capacity control</t>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <t>Integrated Energy Efficiency Ratio</t>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
+    <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <t>Energy Efficiency Ratio at Standard Rating Conditions</t>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <t>Net total cooling capacity at Standard Rating Conditions</t>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0">
+    <comment ref="A52" authorId="0" shapeId="0">
       <text>
         <t>Four part load rating points</t>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
+    <comment ref="B53" authorId="0" shapeId="0">
+      <text>
+        <t>Whether this rating can be recalculated using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0" shapeId="0">
+      <text>
+        <t>An explanation of the value for `rating_recalculatable_from_performance_data`</t>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment ref="B50" authorId="0" shapeId="0">
+    <comment ref="B56" authorId="0" shapeId="0">
       <text>
         <t>Continuous unit power draw regardless of fan or DX system operation</t>
       </text>
     </comment>
-    <comment ref="A51" authorId="0" shapeId="0">
+    <comment ref="A57" authorId="0" shapeId="0">
       <text>
         <t>The corresponding Standard 205 fan assembly representation</t>
       </text>
     </comment>
-    <comment ref="B52" authorId="0" shapeId="0">
+    <comment ref="B58" authorId="0" shapeId="0">
       <text>
         <t>Position of the fan relative to the cooling coil</t>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0">
-      <text>
-        <t>The corresponding Standard 205 direct expansion coil system representation</t>
+    <comment ref="A59" authorId="0" shapeId="0">
+      <text>
+        <t>The corresponding Standard 205 direct expansion system representation</t>
       </text>
     </comment>
   </commentList>
@@ -670,7 +700,7 @@
     </comment>
     <comment ref="B24" authorId="0" shapeId="0">
       <text>
-        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 210/240</t>
+        <t>Cycling degradation coefficient (C~D~) as described in AHRI 210/240</t>
       </text>
     </comment>
     <comment ref="A25" authorId="0" shapeId="0">
@@ -1721,7 +1751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ53"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1922,7 +1952,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -2257,13 +2287,13 @@
       <c r="A30" s="4" t="n"/>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_a_full_power</t>
+          <t xml:space="preserve">    cooling_g_low_capacity</t>
         </is>
       </c>
       <c r="C30" s="5" t="n"/>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E30" s="6" t="n"/>
@@ -2272,13 +2302,13 @@
       <c r="A31" s="4" t="n"/>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_b_full_power</t>
+          <t xml:space="preserve">    cooling_i_low_capacity</t>
         </is>
       </c>
       <c r="C31" s="5" t="n"/>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E31" s="6" t="n"/>
@@ -2287,7 +2317,7 @@
       <c r="A32" s="4" t="n"/>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_b_low_power</t>
+          <t xml:space="preserve">    cooling_a_full_power</t>
         </is>
       </c>
       <c r="C32" s="5" t="n"/>
@@ -2302,7 +2332,7 @@
       <c r="A33" s="4" t="n"/>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_f_low_power</t>
+          <t xml:space="preserve">    cooling_b_full_power</t>
         </is>
       </c>
       <c r="C33" s="5" t="n"/>
@@ -2317,7 +2347,7 @@
       <c r="A34" s="4" t="n"/>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_full_fan_power</t>
+          <t xml:space="preserve">    cooling_b_low_power</t>
         </is>
       </c>
       <c r="C34" s="5" t="n"/>
@@ -2326,36 +2356,28 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_full_air_volumetric_flow_rate</t>
+          <t xml:space="preserve">    cooling_f_low_power</t>
         </is>
       </c>
       <c r="C35" s="5" t="n"/>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>cfm</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_low_fan_power</t>
+          <t xml:space="preserve">    cooling_g_low_power</t>
         </is>
       </c>
       <c r="C36" s="5" t="n"/>
@@ -2370,13 +2392,13 @@
       <c r="A37" s="4" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_low_air_volumetric_flow_rate</t>
+          <t xml:space="preserve">    cooling_i_low_power</t>
         </is>
       </c>
       <c r="C37" s="5" t="n"/>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>cfm</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E37" s="6" t="n"/>
@@ -2385,11 +2407,15 @@
       <c r="A38" s="4" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">    cooling_full_fan_power</t>
         </is>
       </c>
       <c r="C38" s="5" t="n"/>
-      <c r="D38" s="4" t="n"/>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="E38" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2397,104 +2423,100 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_340_360</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="n"/>
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cooling_full_air_volumetric_flow_rate</t>
+        </is>
+      </c>
       <c r="C39" s="5" t="n"/>
-      <c r="D39" s="4" t="n"/>
-      <c r="E39" s="6" t="n"/>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>cfm</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    certified_reference_number</t>
+          <t xml:space="preserve">    cooling_low_fan_power</t>
         </is>
       </c>
       <c r="C40" s="5" t="n"/>
-      <c r="D40" s="4" t="n"/>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    test_standard_year</t>
+          <t xml:space="preserve">    cooling_low_air_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="C41" s="5" t="n"/>
-      <c r="D41" s="4" t="n"/>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>cfm</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_source</t>
+          <t xml:space="preserve">    rating_recalculatable_from_performance_data</t>
         </is>
       </c>
       <c r="C42" s="5" t="n"/>
       <c r="D42" s="4" t="n"/>
-      <c r="E42" s="6" t="n"/>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    capacity_control_type</t>
+          <t xml:space="preserve">    rating_recalculatable_explanation</t>
         </is>
       </c>
       <c r="C43" s="5" t="n"/>
       <c r="D43" s="4" t="n"/>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ieer</t>
-        </is>
-      </c>
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_340_360</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n"/>
       <c r="C44" s="5" t="n"/>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>Btu/W-h</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n"/>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    eer</t>
+          <t xml:space="preserve">    certified_reference_number</t>
         </is>
       </c>
       <c r="C45" s="5" t="n"/>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>Btu/W-h</t>
-        </is>
-      </c>
+      <c r="D45" s="4" t="n"/>
       <c r="E45" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2505,15 +2527,11 @@
       <c r="A46" s="4" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_capacity</t>
+          <t xml:space="preserve">    test_standard_year</t>
         </is>
       </c>
       <c r="C46" s="5" t="n"/>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
+      <c r="D46" s="4" t="n"/>
       <c r="E46" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2521,17 +2539,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_340_360.part_load_points</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="n"/>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>$part_load_points</t>
-        </is>
-      </c>
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_source</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n"/>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="6" t="n"/>
     </row>
@@ -2539,7 +2553,7 @@
       <c r="A48" s="4" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">    capacity_control_type</t>
         </is>
       </c>
       <c r="C48" s="5" t="n"/>
@@ -2551,14 +2565,18 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="n"/>
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ieer</t>
+        </is>
+      </c>
       <c r="C49" s="5" t="n"/>
-      <c r="D49" s="4" t="n"/>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
+        </is>
+      </c>
       <c r="E49" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2569,13 +2587,13 @@
       <c r="A50" s="4" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>standby_power</t>
+          <t xml:space="preserve">    eer</t>
         </is>
       </c>
       <c r="C50" s="5" t="n"/>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E50" s="6" t="inlineStr">
@@ -2585,45 +2603,139 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>performance.fan_representation</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="n"/>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>$fan_representation</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="n"/>
-      <c r="E51" s="6" t="n"/>
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cooling_capacity</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="n"/>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>fan_position</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="n"/>
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_340_360.part_load_points</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>$part_load_points</t>
+        </is>
+      </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_recalculatable_from_performance_data</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_recalculatable_explanation</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="6" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="5" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>standby_power</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="n"/>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>performance.indoor_fan_representation</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>$indoor_fan_representation</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="6" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>fan_position</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="6" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>performance.dx_system_representation</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n"/>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>$dx_system_representation</t>
         </is>
       </c>
-      <c r="D53" s="4" t="n"/>
-      <c r="E53" s="6" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="8">
@@ -2631,31 +2743,31 @@
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
     <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"IP_2008,IP_2017"</formula1>
+      <formula1>"IP_2008,IP_2017,IP_2023"</formula1>
     </dataValidation>
     <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"SINGLE_STAGE,TWO_STAGE,VARIABLE_STAGE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C38" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C42" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C41" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C46" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"IP_2007,IP_2015,IP_2019"</formula1>
     </dataValidation>
-    <dataValidation sqref="C43" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C48" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"FIXED_CAPACITY,STAGED_CAPACITY,PROPORTIONAL_CAPACITY"</formula1>
     </dataValidation>
-    <dataValidation sqref="C48" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C53" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C52" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C58" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1"/>
-    <hyperlink ref="C51" r:id="rId2"/>
-    <hyperlink ref="C53" r:id="rId3"/>
+    <hyperlink ref="C52" r:id="rId1"/>
+    <hyperlink ref="C57" r:id="rId2"/>
+    <hyperlink ref="C59" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -2733,7 +2845,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2947,7 +3059,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3032,7 +3144,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.metadata</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -3083,7 +3195,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3189,7 +3301,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.description</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -3200,7 +3312,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.description.product_information</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -3244,7 +3356,7 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.performance</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.performance</t>
         </is>
       </c>
       <c r="B19" s="4" t="n"/>
@@ -3278,7 +3390,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B21" s="4" t="n"/>
@@ -3382,7 +3494,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3558,7 +3670,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3908,7 +4020,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -5617,7 +5729,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation</t>
+          <t>performance.indoor_fan_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5702,7 +5814,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.metadata</t>
+          <t>performance.indoor_fan_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -5753,7 +5865,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -5859,7 +5971,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.description</t>
+          <t>performance.indoor_fan_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -5870,7 +5982,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.description.product_information</t>
+          <t>performance.indoor_fan_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -5925,7 +6037,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance</t>
+          <t>performance.indoor_fan_representation.performance</t>
         </is>
       </c>
       <c r="B20" s="4" t="n"/>
@@ -5974,7 +6086,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.assembly_components</t>
+          <t>performance.indoor_fan_representation.performance.assembly_components</t>
         </is>
       </c>
       <c r="B23" s="4" t="n"/>
@@ -6046,7 +6158,7 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.stability_curve</t>
+          <t>performance.indoor_fan_representation.performance.stability_curve</t>
         </is>
       </c>
       <c r="B27" s="4" t="n"/>
@@ -6137,7 +6249,7 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
@@ -6152,7 +6264,7 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation</t>
         </is>
       </c>
       <c r="B33" s="4" t="n"/>
@@ -6167,7 +6279,7 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B34" s="4" t="n"/>
@@ -6285,7 +6397,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.assembly_components</t>
+          <t>performance.indoor_fan_representation.performance.assembly_components</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6496,7 +6608,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.stability_curve.standard_air_volumetric_flow_rate</t>
+          <t>performance.indoor_fan_representation.performance.stability_curve.standard_air_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6656,7 +6768,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.stability_curve.static_pressure_difference</t>
+          <t>performance.indoor_fan_representation.performance.stability_curve.static_pressure_difference</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6816,7 +6928,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6901,7 +7013,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.metadata</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -6952,7 +7064,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -7058,7 +7170,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.description</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -7069,7 +7181,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.description.product_information</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -7132,7 +7244,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance</t>
         </is>
       </c>
       <c r="B20" s="4" t="n"/>
@@ -7200,7 +7312,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation</t>
         </is>
       </c>
       <c r="B24" s="4" t="n"/>
@@ -7215,7 +7327,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B25" s="4" t="n"/>
@@ -7313,7 +7425,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7398,7 +7510,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.metadata</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -7449,7 +7561,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -7555,7 +7667,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.description</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -7566,7 +7678,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.description.product_information</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -7599,7 +7711,7 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.performance</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.performance</t>
         </is>
       </c>
       <c r="B18" s="4" t="n"/>
@@ -7667,7 +7779,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B22" s="4" t="n"/>
@@ -7771,7 +7883,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
